--- a/Supplier DB.xlsx
+++ b/Supplier DB.xlsx
@@ -503,10 +503,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -517,7 +517,7 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2">
         <v>234</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3">
         <v>939</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4">
         <v>34</v>
       </c>
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5">
         <v>1264</v>
       </c>
@@ -572,7 +572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6">
         <v>5667</v>
       </c>
@@ -583,7 +583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7">
         <v>667</v>
       </c>
@@ -594,7 +594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8">
         <v>45</v>
       </c>
@@ -605,7 +605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9">
         <v>1351</v>
       </c>
@@ -616,7 +616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10">
         <v>1352</v>
       </c>
@@ -627,7 +627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11">
         <v>1437</v>
       </c>
@@ -638,7 +638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12">
         <v>67</v>
       </c>
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14">
         <v>345</v>
       </c>
@@ -671,7 +671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15">
         <v>2279</v>
       </c>
@@ -682,7 +682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16">
         <v>876</v>
       </c>
@@ -693,7 +693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17">
         <v>2549</v>
       </c>
@@ -704,7 +704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18">
         <v>935</v>
       </c>
@@ -715,7 +715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19">
         <v>2693</v>
       </c>
@@ -726,7 +726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21">
         <v>134</v>
       </c>
@@ -748,7 +748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22">
         <v>3277</v>
       </c>
@@ -759,7 +759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23">
         <v>53</v>
       </c>
@@ -770,7 +770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24">
         <v>392</v>
       </c>
@@ -781,7 +781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25">
         <v>625</v>
       </c>
@@ -790,6 +790,366 @@
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="1">
+        <v>234</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Eskom Holdings Limited</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>086 0037566</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="1">
+        <v>939</v>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Focus Rooms (Pty) Ltd</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>0820776910</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>GSM Electro</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>0128110069</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Jody and Herman Investments CC</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>0118864227</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="1">
+        <v>5667</v>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Johan Le Roux Ingenieurswerke</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>0233423390</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="1">
+        <v>667</v>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>L. J. Ross t/a Petite Cafe'</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>0117868101</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="1">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>L.A Auto Center  CC t/a LA Body Works</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>0219488412</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="1">
+        <v>1351</v>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>LG Tow-In CC</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>0828044026</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="1">
+        <v>1352</v>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>LM Greyling t/aThe Electric Advertiser</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>0119545972</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="1">
+        <v>1437</v>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>M.H Cloete Enterprises (Pty) Ltd  t/a  Rola Motors</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>0218418300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="1">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>M.M Hydraulics CC</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>011425 6578</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Phulo Human Capital (Pty) Ltd</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>0114755934</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="1">
+        <v>345</v>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Picaro 115 CC t/a H2O CT Services</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>0216745710</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="1">
+        <v>2279</v>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Safetygrip CC</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>0117086660</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="1">
+        <v>876</v>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Safic (Pty) Ltd</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>0114064000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="1">
+        <v>2549</v>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>The Financial Planning Institute Of Southern Africa</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>0861000374</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="1">
+        <v>935</v>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>The Fitment Zone  CC</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>0118234181</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Turnweld Engineering CC</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>0115468790</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Tutuka Motor Holdings Pty Ltd t/a Tutuka Motor Lab</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>0117044324</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="1">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WP Exhaust Brake &amp; Clutch t/a In Focus Fleet Services</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>0219055028</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="1">
+        <v>3277</v>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WP Sekuriteit</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>0233421732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="1">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Brietta Trading (Pty) Ltd</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>0115526000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="1">
+        <v>392</v>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>C.N. Braam t/a CNB Electrical Services</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>0832835399</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="1">
+        <v>625</v>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Creative Crew (Pty) Ltd</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>0120040218</t>
+        </is>
       </c>
     </row>
   </sheetData>
